--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30699E6-D9B0-4C06-9A0D-B0BCACD58D5D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD921AB6-E118-473A-A62C-4CFDD70B36F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,8 +20,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C35E0C3-7281-4DBB-AFDC-30B652EA615C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.数值型
+2.字符串型
+3.布尔型
+4.数值型数组
+5.字符串数组</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>sheet名</t>
   </si>
@@ -150,6 +190,35 @@
   </si>
   <si>
     <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_2</t>
+  </si>
+  <si>
+    <t>抽取1次的价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取5次的价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_3</t>
+  </si>
+  <si>
+    <t>draw_4</t>
+  </si>
+  <si>
+    <t>抽取道具id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔几次获得一次稀有的抽取机会</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +308,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -662,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,15 +845,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -854,8 +939,81 @@
         <v>31</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD921AB6-E118-473A-A62C-4CFDD70B36F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F89F7-1F12-48C2-BBAB-F8603120EB02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>sheet名</t>
   </si>
@@ -219,6 +219,48 @@
   </si>
   <si>
     <t>每隔几次获得一次稀有的抽取机会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>niA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>utoClick</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始状态下，1秒帮玩家点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1次</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -846,15 +888,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -1011,6 +1053,24 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F89F7-1F12-48C2-BBAB-F8603120EB02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB78658-2801-42CB-AC92-EF9C25825BC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>sheet名</t>
   </si>
@@ -261,6 +261,22 @@
       </rPr>
       <t>1次</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile-unlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser-unlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮解锁关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮解锁关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,6 +1087,42 @@
         <v>42</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB78658-2801-42CB-AC92-EF9C25825BC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA1FB79-AA92-40D8-A9C3-4DA22F07A867}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA1FB79-AA92-40D8-A9C3-4DA22F07A867}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3B41B8-26E8-405E-97F3-9AB776F2FDDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C35E0C3-7281-4DBB-AFDC-30B652EA615C}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9C35E0C3-7281-4DBB-AFDC-30B652EA615C}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>sheet名</t>
   </si>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>float:ea&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string:ea&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,10 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>draw_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,26 +192,10 @@
     <t>draw_2</t>
   </si>
   <si>
-    <t>抽取1次的价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取5次的价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>draw_3</t>
   </si>
   <si>
     <t>draw_4</t>
-  </si>
-  <si>
-    <t>抽取道具id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔几次获得一次稀有的抽取机会</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -277,6 +253,111 @@
   </si>
   <si>
     <t>激光炮解锁关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取晶片1次的价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取晶片5次的价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取晶片道具id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔几次获得一次稀有的晶片抽取机会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取装备1次的价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取装备5次的价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取装备道具id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔几次获得一次稀有的装备抽取机会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_12</t>
+  </si>
+  <si>
+    <t>draw_13</t>
+  </si>
+  <si>
+    <t>draw_14</t>
+  </si>
+  <si>
+    <t>sweeping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日扫荡次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡每次花费数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10,100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepingNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>globle.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key,rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端的全局表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualityColors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ea&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6de933,0x3fb9ff,0xef3fff,0xfaa724,0xff3f71</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +574,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -510,6 +591,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -805,7 +899,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,14 +943,12 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
@@ -866,13 +958,25 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -904,223 +1008,401 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="44.375" customWidth="1"/>
+    <col min="8" max="8" width="48.125" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
       <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>500</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>500</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>22</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>46</v>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3B41B8-26E8-405E-97F3-9AB776F2FDDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD437C-BE3E-430B-8F15-4ACD5F7A37D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>sheet名</t>
   </si>
@@ -349,15 +349,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>品质色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:ea&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0x6de933,0x3fb9ff,0xef3fff,0xfaa724,0xff3f71</t>
+    <t>0xffffff,0x6de933,0x3fb9ff,0xef3fff,0xfaa724,0xff3f71</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质色(白绿蓝紫橙红)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepingTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费金币兑换次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝免费玩家兑换次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币兑换暴击倍数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeGoldExchangeNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamGoldExchangeNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldExchangeMultiple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线最大的时间（单位min）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡一次的时间（单位min）。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +614,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -604,6 +644,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1008,16 +1051,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="44.375" customWidth="1"/>
     <col min="8" max="8" width="48.125" customWidth="1"/>
@@ -1073,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1083,246 +1126,246 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>100</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>500</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>22</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>100</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>500</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>5</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1343,7 +1386,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1364,50 +1407,156 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>240</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>65</v>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>480</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD437C-BE3E-430B-8F15-4ACD5F7A37D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E026EF4A-44A9-4304-A391-AE2293328F26}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>sheet名</t>
   </si>
@@ -398,6 +398,46 @@
   </si>
   <si>
     <t>扫荡一次的时间（单位min）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>first1charge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>first6charge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1元首冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6元首冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1051,11 +1091,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4C662-7383-49FA-BAED-61E88D1D2818}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1553,6 +1593,48 @@
         <v>72</v>
       </c>
     </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E026EF4A-44A9-4304-A391-AE2293328F26}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619FAEC1-E26A-4FFA-8C5B-6D638B4DF56E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,10,100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>sweepingNum</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -437,6 +433,22 @@
         <charset val="134"/>
       </rPr>
       <t>ID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0,10,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30,50,60,70,80,90,100,100,120,120</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1031,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
@@ -1046,16 +1058,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1094,8 +1106,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,13 +1115,13 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="44.375" customWidth="1"/>
-    <col min="8" max="8" width="48.125" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -1156,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1167,7 +1179,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>23</v>
@@ -1436,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1451,7 +1463,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
@@ -1459,8 +1471,8 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>56</v>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
@@ -1472,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -1485,7 +1497,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6">
         <v>5</v>
@@ -1503,10 +1515,10 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1514,7 +1526,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -1527,7 +1539,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1535,7 +1547,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -1548,7 +1560,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1556,7 +1568,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -1569,7 +1581,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1577,7 +1589,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -1590,7 +1602,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1598,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1611,7 +1623,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1619,7 +1631,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1632,7 +1644,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/globle.全局.xlsx
+++ b/Excel/globle.全局.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619FAEC1-E26A-4FFA-8C5B-6D638B4DF56E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA87F4-C68A-427E-9FA6-4DBDE6A0F4A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1107,7 +1107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
